--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1042.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1042.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153294822970765</v>
+        <v>0.4056753516197205</v>
       </c>
       <c r="B1">
-        <v>3.367116275707666</v>
+        <v>1.357993483543396</v>
       </c>
       <c r="C1">
-        <v>2.562892232161262</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.377713453737558</v>
+        <v>2.001107692718506</v>
       </c>
       <c r="E1">
-        <v>2.02327583700968</v>
+        <v>1.136234283447266</v>
       </c>
     </row>
   </sheetData>
